--- a/Projects/CCBOTTLERSUS/CMA_SOUTHWEST/Data/Southwest CMA Compliance Template_v7.xlsx
+++ b/Projects/CCBOTTLERSUS/CMA_SOUTHWEST/Data/Southwest CMA Compliance Template_v7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="136">
   <si>
     <t xml:space="preserve">KPI name</t>
   </si>
@@ -122,256 +122,259 @@
     <t xml:space="preserve">Isotonics</t>
   </si>
   <si>
+    <t xml:space="preserve">Premium/Enhanced Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diet Coke Sleek Can 12 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facings NTBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold Vault &amp; Coolers with Doors (Outside of Checkout Area)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Mutant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topo Chico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamin Water Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Hydro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huberts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McCafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Cafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coke Cooler Purity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coke Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southwest Deliver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_ean_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7613035738539, 7613035738119, 50189779, 50251797, 7613035220065, 7613034954459, 3800020415009, 7613035058347, 7613035052024, 7613034872630, 50251414, 761303495928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator param 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator value 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator param 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator value 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator param 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator value 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">att4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOS ENERGY,FULL THROTTLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONSTER ENERGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isotonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHELF STABLE PROTEIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Subcategory Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POWERADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMARTWATER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMARTWATER SPARKLING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLD PEAK TEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS - Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUTHWEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Coke Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS - Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45% - 65%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of shelves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.5 Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of shelves bonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.5 Shelf, 1 Shelf, 2 Shelf, 3 shelf, full door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.5 Shelf, 1 Shelf, 2 Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Shelf, 2 Shelf, 3 shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:1 ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:1 ratio with competition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Coke Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% - 55%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Coke Chill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% - 60%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Coke Chill Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55% - 65%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Premium/Enchanced Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diet Coke Sleek Can 12 oz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facings NTBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cold Vault &amp; Coolers with Doors (Outside of Checkout Area)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Mutant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topo Chico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitamin Water Active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Hydro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huberts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McCafe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Cafe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coke Cooler Purity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coke Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southwest Deliver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_ean_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7613035738539, 7613035738119, 50189779, 50251797, 7613035220065, 7613034954459, 3800020415009, 7613035058347, 7613035052024, 7613034872630, 50251414, 761303495928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator param 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator value 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator param 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator value 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator param 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator value 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">att4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOS ENERGY,FULL THROTTLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONSTER ENERGY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isotonic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub_category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enhanced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dairy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHELF STABLE PROTEIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Subcategory Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POWERADE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMARTWATER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMARTWATER SPARKLING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOLD PEAK TEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS - Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOUTHWEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Club Coke Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS - Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45% - 65%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of shelves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5 Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.5 Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of shelves bonus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.5 Shelf, 1 Shelf, 2 Shelf, 3 shelf, full door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.5 Shelf, 1 Shelf, 2 Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Shelf, 2 Shelf, 3 shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:1 ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:1 ratio with competition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Club Coke Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50% - 55%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Club Coke Chill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50% - 60%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Club Coke Chill Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55% - 65%</t>
   </si>
   <si>
     <t xml:space="preserve">Target; 2 door CSD</t>
@@ -975,18 +978,18 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="64.0566801619433"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.0283400809717"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -1157,7 +1160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>24</v>
       </c>
@@ -1424,7 +1427,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
@@ -1482,7 +1485,7 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="7" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="46.0607287449393"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="7" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1013" min="4" style="7" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="1022" min="1014" style="8" width="9.21052631578947"/>
@@ -1529,24 +1532,24 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -1826,16 +1829,16 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.21052631578947"/>
   </cols>
@@ -2008,7 +2011,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.21052631578947"/>
   </cols>
@@ -2065,11 +2068,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="37.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.46153846153846"/>
   </cols>
   <sheetData>
@@ -2928,7 +2931,7 @@
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>94</v>
@@ -2984,12 +2987,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="14" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.46153846153846"/>
   </cols>
@@ -3014,28 +3017,28 @@
         <v>5</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M1" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,13 +3049,13 @@
         <v>74</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>28</v>
@@ -3075,10 +3078,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>28</v>
@@ -3104,7 +3107,7 @@
         <v>74</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>28</v>
@@ -3135,10 +3138,10 @@
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="14"/>
@@ -3171,10 +3174,10 @@
         <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>28</v>
@@ -3198,13 +3201,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>28</v>
@@ -3238,7 +3241,7 @@
         <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>28</v>
@@ -3269,10 +3272,10 @@
         <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>28</v>
@@ -3303,10 +3306,10 @@
         <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>28</v>
